--- a/data/Map027.xlsx
+++ b/data/Map027.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F3763C-DFA2-4326-9213-C590770DDADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>自動実行</t>
   </si>
@@ -219,19 +224,203 @@
   </si>
   <si>
     <t>シィナ1</t>
+  </si>
+  <si>
+    <t>ED5　The difference between humans and succubi</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;What are we going to do now?
+We're homeless.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Ah, I'm sorry, Lily.
+I was searching for books back there.
+It seems like they're all buried away though...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;It is?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;...?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Oh yeah.
+What do you think about going to Ako's place?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;I think she's a sweet girl-.
+I really love that Ako.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Knock it off.
+I didn't know what I was saying back then.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Sleeping outside...
+I'm getting kind of excited-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;I've never been this far away from home before.
+Getting to travel with you guys, I'm really happy!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Let's have a campfire!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;That's ok!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;I'm a stray at heart.
+I don't need a roof or a bed, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;You said it, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;No way, nya.
+I don't want to owe her anything else, nyan.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;I was... Never good at it, nya.
+But Ako has always been able to see right through me.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;You love her like you love pizza.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;She's such a busybody, nya.
+It's annoying how kind she is, nyan.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;...
+I'm all out of cigarettes, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Mm...
+I guess that's true.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;It's been a while since I slept under the stars too, nyan.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;When you put it like that, I...
+I never had a house before now either.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Ah, but that bath...
+I want to take a bath now...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Really? You were looking for books?
+Thank you.
+But, it's fine.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Yes, it's fine.
+Somehow, I feel like I understand a little better.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Kukuku...♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Let's be honest though.
+Without Ako, we'd still be lab experiments now.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Ahh.
+Looks like we'll be sleeping outdoors for a while.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;We don't have any potatoes or marshmallows, ok?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;(But right now\..\..\..\.\.\.\.
+I'm gonna kick back for a while.)</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;(\n[1]...\.\.
+I'll have my revenge someday.\. I'll make you my semen slave
+once again.\.\. Be prepared.)</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;S-so itchy!!
+Mosquitos!! Poking me all over!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyaaaaaaahhh!!
+Loud ass bugs-----!!!
+I can't sleeeeeeeeeppp---!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Was outside always this loud, nyaa!?
+This is the worst, nyan!
+Home! I miss home!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Once you've gotten a taste for the good life...
+There's no going back...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Snooooore... ZzzZzzZzzz</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Mama... I think I just heard some
+nasty voices from deep in the forest.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Let's hope it was just your imagination.
+Hahh... What am I doing sleeping outside...</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;The research lab is all gone...
+What should we do now?</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;We'll grin and bear it.
+As long as we're alive, another chance will come by.
+Let's reunite with the researchers, and start over.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;For the sake our noble cause,
+We must absolutely not give up hope.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;Yeah... That's right.</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;I learned a lot from this incident. Our losses
+were overwhelmingly massive, but it wasn't a total waste.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;\C[14]The Black Lily\C[0] is immortal.
+Our comrades exist all across the globe.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;'Love and curses. Love and curses the world over.'
+Come, Chocolat, say it with me!</t>
+  </si>
+  <si>
+    <t>\n&lt;Chocolat&gt;L... Love and curses.
+(Geez! It's so dumb no matter how many times I hear it.)</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;We shall have the last laugh.
+Ohohohohohoho!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyaah?
+I heard someone talking just now, nyan.</t>
+  </si>
+  <si>
+    <t>\n&lt;Velvet&gt;Ack...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -242,28 +431,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -553,300 +754,438 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="78.5703125" customWidth="1"/>
+    <col min="2" max="2" width="78.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="B39" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+      <c r="B46" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>